--- a/data/input/Grupo_P11.xlsx
+++ b/data/input/Grupo_P11.xlsx
@@ -1,24 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\andrespl\universidad\riesgo_actuarial\modelo-de-riesgo-colectivo-en-siniestros-de-autos\data\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9028A7AB-0DAD-4553-B727-3E0D1B980BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="5820" yWindow="3860" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$K$301</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="7" r:id="rId3"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>FECINICIO</t>
+  </si>
+  <si>
+    <t>FECFIN</t>
+  </si>
+  <si>
+    <t>VLRPRISUSCR</t>
+  </si>
+  <si>
+    <t>VLRASEGU</t>
+  </si>
+  <si>
+    <t>VLRASEGURC</t>
+  </si>
+  <si>
+    <t>PTD</t>
+  </si>
+  <si>
+    <t>PPD</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>PPH</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>Duración</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,6 +100,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -52,28 +131,4365 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Andres Steven Puertas Londoño" refreshedDate="45843.012587037039" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="300" xr:uid="{7437A986-24F9-40F8-B46F-3CA12DD6AD99}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:K301" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="FECINICIO" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-01-08T00:00:00" maxDate="2019-01-10T00:00:00"/>
+    </cacheField>
+    <cacheField name="FECFIN" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-01-08T00:00:00" maxDate="2020-12-30T00:00:00"/>
+    </cacheField>
+    <cacheField name="VLRPRISUSCR" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="4212917"/>
+    </cacheField>
+    <cacheField name="VLRASEGU" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3200000" maxValue="245000000"/>
+    </cacheField>
+    <cacheField name="VLRASEGURC" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="4000000000"/>
+    </cacheField>
+    <cacheField name="PTD" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="PPD" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="PH" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="PPH" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="RC" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Duración" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="721" count="65">
+        <n v="365"/>
+        <n v="236"/>
+        <n v="0"/>
+        <n v="65"/>
+        <n v="687"/>
+        <n v="396"/>
+        <n v="529"/>
+        <n v="719"/>
+        <n v="151"/>
+        <n v="721"/>
+        <n v="347"/>
+        <n v="98"/>
+        <n v="272"/>
+        <n v="325"/>
+        <n v="297"/>
+        <n v="302"/>
+        <n v="235"/>
+        <n v="250"/>
+        <n v="258"/>
+        <n v="113"/>
+        <n v="357"/>
+        <n v="108"/>
+        <n v="53"/>
+        <n v="266"/>
+        <n v="304"/>
+        <n v="212"/>
+        <n v="255"/>
+        <n v="83"/>
+        <n v="23"/>
+        <n v="253"/>
+        <n v="199"/>
+        <n v="136"/>
+        <n v="128"/>
+        <n v="30"/>
+        <n v="88"/>
+        <n v="224"/>
+        <n v="206"/>
+        <n v="456"/>
+        <n v="660"/>
+        <n v="500"/>
+        <n v="205"/>
+        <n v="303"/>
+        <n v="86"/>
+        <n v="106"/>
+        <n v="17"/>
+        <n v="679"/>
+        <n v="528"/>
+        <n v="612"/>
+        <n v="173"/>
+        <n v="671"/>
+        <n v="121"/>
+        <n v="340"/>
+        <n v="80"/>
+        <n v="254"/>
+        <n v="149"/>
+        <n v="389"/>
+        <n v="499"/>
+        <n v="326"/>
+        <n v="273"/>
+        <n v="265"/>
+        <n v="37"/>
+        <n v="116"/>
+        <n v="107"/>
+        <n v="405"/>
+        <n v="398"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="300">
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1379000"/>
+    <n v="46490000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1414000"/>
+    <n v="62590000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1369000"/>
+    <n v="36490000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1379000"/>
+    <n v="41990000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1379000"/>
+    <n v="45390000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-09-01T00:00:00"/>
+    <n v="661678"/>
+    <n v="23500000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="567796"/>
+    <n v="8239999"/>
+    <n v="200000000"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-03-14T00:00:00"/>
+    <n v="1127394"/>
+    <n v="23500000"/>
+    <n v="1500"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-11-25T00:00:00"/>
+    <n v="1191750"/>
+    <n v="26800000"/>
+    <n v="1000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="34100000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1494762"/>
+    <n v="52900000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1973880"/>
+    <n v="96700000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1678396"/>
+    <n v="53589999"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="3311157"/>
+    <n v="108200000"/>
+    <n v="750000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-06-20T00:00:00"/>
+    <n v="1177840"/>
+    <n v="21400000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="28300000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="2397900"/>
+    <n v="41100000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="25100000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="2063768"/>
+    <n v="71200000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-12-27T00:00:00"/>
+    <n v="1741526"/>
+    <n v="44100000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="2329618"/>
+    <n v="187189325"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1978748"/>
+    <n v="113500000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="834927"/>
+    <n v="28900000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="2881582"/>
+    <n v="87800000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1607680"/>
+    <n v="49200000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="3156273"/>
+    <n v="87800000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1604646"/>
+    <n v="46300000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1566046"/>
+    <n v="87800000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-06-08T00:00:00"/>
+    <n v="1510284"/>
+    <n v="47600000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-12-29T00:00:00"/>
+    <n v="1313815"/>
+    <n v="72200000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1341459"/>
+    <n v="45600000"/>
+    <n v="1500000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-12-21T00:00:00"/>
+    <n v="896118"/>
+    <n v="21900000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1087721"/>
+    <n v="30400000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="35400000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-04-16T00:00:00"/>
+    <n v="433938"/>
+    <n v="83000000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="2626665"/>
+    <n v="111400000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="2744899"/>
+    <n v="104100000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="26289732"/>
+    <n v="500100000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="49200000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-10-07T00:00:00"/>
+    <n v="785777"/>
+    <n v="31400000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1211117"/>
+    <n v="24700000"/>
+    <n v="1000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="2476720"/>
+    <n v="74600000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="3677232"/>
+    <n v="109500000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1837651"/>
+    <n v="21500000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1587620"/>
+    <n v="48700000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1158500"/>
+    <n v="35000000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1550881"/>
+    <n v="70559999"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="3073296"/>
+    <n v="76300000"/>
+    <n v="2500000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-11-29T00:00:00"/>
+    <n v="1090536"/>
+    <n v="49990000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="90500000"/>
+    <n v="1500000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="49553000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="990807"/>
+    <n v="39500000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1243400"/>
+    <n v="24000000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="2789600"/>
+    <n v="77100000"/>
+    <n v="1500000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="37700000"/>
+    <n v="750000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="33530000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="26600000"/>
+    <n v="500100000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="34200000"/>
+    <n v="1000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1413088"/>
+    <n v="49553000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="38230000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-11-01T00:00:00"/>
+    <n v="730864"/>
+    <n v="49900000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="755491"/>
+    <n v="22700000"/>
+    <n v="2000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1453916"/>
+    <n v="39600000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="54700000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-11-06T00:00:00"/>
+    <n v="1029542"/>
+    <n v="30900000"/>
+    <n v="1000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="880272"/>
+    <n v="24400000"/>
+    <n v="999900000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="889474"/>
+    <n v="30900000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="2114656"/>
+    <n v="121800000"/>
+    <n v="1000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="482875"/>
+    <n v="13300000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1910428"/>
+    <n v="64150000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="906420"/>
+    <n v="27000000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1235483"/>
+    <n v="56300000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1683046"/>
+    <n v="60145000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-09-15T00:00:00"/>
+    <n v="2128389"/>
+    <n v="110690000"/>
+    <n v="1500000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="4081287"/>
+    <n v="128600000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="2079587"/>
+    <n v="49990000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="2936069"/>
+    <n v="160100000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-09-23T00:00:00"/>
+    <n v="3002697"/>
+    <n v="180000000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-09-23T00:00:00"/>
+    <n v="3314976"/>
+    <n v="198720000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-05-01T00:00:00"/>
+    <n v="789460"/>
+    <n v="94500000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="18200000"/>
+    <n v="1000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="18200000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="972139"/>
+    <n v="25900000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1346364"/>
+    <n v="74450000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="245000000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-12-31T00:00:00"/>
+    <n v="1245881"/>
+    <n v="66000000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="35900000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="4148832"/>
+    <n v="245000000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="74900000"/>
+    <n v="1500000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="75700000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="75700000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-04-26T00:00:00"/>
+    <n v="457431"/>
+    <n v="45789250"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="974786"/>
+    <n v="69000000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="466781"/>
+    <n v="22800000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1800000"/>
+    <n v="118390001"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="630032"/>
+    <n v="34800000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="757442"/>
+    <n v="51000000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="0"/>
+    <n v="159900000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-03-02T00:00:00"/>
+    <n v="121702"/>
+    <n v="40490000"/>
+    <n v="4000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="159900000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="27600000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="46300000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="26100000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="40000000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1674798"/>
+    <n v="39500000"/>
+    <n v="1200000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1623631"/>
+    <n v="47450000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="2024954"/>
+    <n v="75558000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="59390000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="49990000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="1853090"/>
+    <n v="159900000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="60662000"/>
+    <n v="1200000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="900000"/>
+    <n v="14400000"/>
+    <n v="1200000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1066400"/>
+    <n v="21500000"/>
+    <n v="1200000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="2198108"/>
+    <n v="35858200"/>
+    <n v="1200000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1081279"/>
+    <n v="19400000"/>
+    <n v="1200000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="2082141"/>
+    <n v="56300000"/>
+    <n v="1200000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1499600"/>
+    <n v="37490000"/>
+    <n v="1200000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1369000"/>
+    <n v="34280000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1369000"/>
+    <n v="43029350"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1369000"/>
+    <n v="33030000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1369000"/>
+    <n v="38750000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1369000"/>
+    <n v="42010000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="44498972"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1697000"/>
+    <n v="63645000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1369000"/>
+    <n v="32930000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1414000"/>
+    <n v="58548600"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1369000"/>
+    <n v="36490000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1657000"/>
+    <n v="66700000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1697000"/>
+    <n v="65145000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1369000"/>
+    <n v="33480000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1369000"/>
+    <n v="41022150"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1369000"/>
+    <n v="33530000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1697000"/>
+    <n v="58950000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1414000"/>
+    <n v="55990000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-10-01T00:00:00"/>
+    <n v="379433"/>
+    <n v="6500000"/>
+    <n v="400000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="466783"/>
+    <n v="20000000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="2242967"/>
+    <n v="36590000"/>
+    <n v="1200000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-11-08T00:00:00"/>
+    <n v="1298888"/>
+    <n v="32490000"/>
+    <n v="1200000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-08-08T00:00:00"/>
+    <n v="848437"/>
+    <n v="43090000"/>
+    <n v="1200000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-09-20T00:00:00"/>
+    <n v="577482"/>
+    <n v="38990000"/>
+    <n v="1000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-09-20T00:00:00"/>
+    <n v="471575"/>
+    <n v="21500000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-04-01T00:00:00"/>
+    <n v="286282"/>
+    <n v="59950000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-31T00:00:00"/>
+    <n v="39259"/>
+    <n v="25400000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-09-18T00:00:00"/>
+    <n v="1106547"/>
+    <n v="52000000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="2171700"/>
+    <n v="60662000"/>
+    <n v="1200000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1414000"/>
+    <n v="44498972"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1822000"/>
+    <n v="49990000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-07-26T00:00:00"/>
+    <n v="578321"/>
+    <n v="11900000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-04-26T00:00:00"/>
+    <n v="963071"/>
+    <n v="138600000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1787700"/>
+    <n v="59000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1814971"/>
+    <n v="59900000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="828116"/>
+    <n v="39100000"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="72200000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1331775"/>
+    <n v="55000000"/>
+    <n v="1000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-05-24T00:00:00"/>
+    <n v="1164470"/>
+    <n v="115300000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1547879"/>
+    <n v="78400000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="39600000"/>
+    <n v="499950000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="2147781"/>
+    <n v="42600000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="3071054"/>
+    <n v="137500000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1492759"/>
+    <n v="40990000"/>
+    <n v="499950000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-05-16T00:00:00"/>
+    <n v="912847"/>
+    <n v="66066837"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-02-07T00:00:00"/>
+    <n v="272372"/>
+    <n v="99514672"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-04-06T00:00:00"/>
+    <n v="429136"/>
+    <n v="76065742"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-08-20T00:00:00"/>
+    <n v="429589"/>
+    <n v="22700000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-08-02T00:00:00"/>
+    <n v="287705"/>
+    <n v="7190000"/>
+    <n v="200000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-08-02T00:00:00"/>
+    <n v="727829"/>
+    <n v="40100000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-08-02T00:00:00"/>
+    <n v="279076"/>
+    <n v="6974300"/>
+    <n v="200000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-08-02T00:00:00"/>
+    <n v="279076"/>
+    <n v="6974300"/>
+    <n v="200000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-08-02T00:00:00"/>
+    <n v="279076"/>
+    <n v="6974300"/>
+    <n v="200000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="26100000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="2426064"/>
+    <n v="71990000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-04-08T00:00:00"/>
+    <n v="2309474"/>
+    <n v="89800000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="37400000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1265701"/>
+    <n v="37400000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-10-29T00:00:00"/>
+    <n v="1107822"/>
+    <n v="39600000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1196318"/>
+    <n v="35400000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1928666"/>
+    <n v="62864926"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="29400000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1163300"/>
+    <n v="19500000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="39400000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="32500000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="31600000"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="27600000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="68900000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-05-22T00:00:00"/>
+    <n v="1389005"/>
+    <n v="56490000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="94639100"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="94639100"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-08-01T00:00:00"/>
+    <n v="339744"/>
+    <n v="35900000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1381828"/>
+    <n v="40300000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1119259"/>
+    <n v="29400000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1806736"/>
+    <n v="94639100"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-11-07T00:00:00"/>
+    <n v="923278"/>
+    <n v="47600000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-04-04T00:00:00"/>
+    <n v="300168"/>
+    <n v="54800000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1315473"/>
+    <n v="47490000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="959759"/>
+    <n v="39990000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1051786"/>
+    <n v="21800000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-04-24T00:00:00"/>
+    <n v="745310"/>
+    <n v="113500000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1667829"/>
+    <n v="58200000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="682500"/>
+    <n v="3200000"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="38200000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="29900000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="2364792"/>
+    <n v="67000000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="485120"/>
+    <n v="13500000"/>
+    <n v="700000000"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1088898"/>
+    <n v="28800000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="14600000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-25T00:00:00"/>
+    <n v="37122"/>
+    <n v="14600000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-11-17T00:00:00"/>
+    <n v="1692470"/>
+    <n v="35700000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1102719"/>
+    <n v="18400000"/>
+    <n v="1000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="41400000"/>
+    <n v="408000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="2549353"/>
+    <n v="40900000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="862121"/>
+    <n v="19800000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="49200000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-09-18T00:00:00"/>
+    <n v="499729"/>
+    <n v="23400000"/>
+    <n v="750000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-06-19T00:00:00"/>
+    <n v="1839044"/>
+    <n v="59700000"/>
+    <n v="500000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="57900000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1080388"/>
+    <n v="33800000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="909980"/>
+    <n v="24700000"/>
+    <n v="1000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="43100000"/>
+    <n v="1500000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1640105"/>
+    <n v="83900000"/>
+    <n v="2000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1560635"/>
+    <n v="23300000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-09-11T00:00:00"/>
+    <n v="930532"/>
+    <n v="31300000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="732946"/>
+    <n v="25100000"/>
+    <n v="750000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-06-30T00:00:00"/>
+    <n v="616388"/>
+    <n v="31500000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="29900000"/>
+    <n v="1000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1001403"/>
+    <n v="67700000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-11-09T00:00:00"/>
+    <n v="1142531"/>
+    <n v="29900000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="97102000"/>
+    <n v="1500000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-06-30T00:00:00"/>
+    <n v="957084"/>
+    <n v="27700000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-04-01T00:00:00"/>
+    <n v="632390"/>
+    <n v="45590000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="52955000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-11-01T00:00:00"/>
+    <n v="3477091"/>
+    <n v="75100000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-05-09T00:00:00"/>
+    <n v="314402"/>
+    <n v="17400000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="2280028"/>
+    <n v="155000000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-12-14T00:00:00"/>
+    <n v="874197"/>
+    <n v="14800000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="995059"/>
+    <n v="16900000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="42400000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-03-29T00:00:00"/>
+    <n v="219278"/>
+    <n v="30900000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-01-08T00:00:00"/>
+    <n v="0"/>
+    <n v="26700000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="68800000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-09-19T00:00:00"/>
+    <n v="1090181"/>
+    <n v="28900000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2019-06-06T00:00:00"/>
+    <n v="981449"/>
+    <n v="92200000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="27800000"/>
+    <n v="1000000000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1208534"/>
+    <n v="35100000"/>
+    <n v="1500000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="46900000"/>
+    <n v="1000000000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-08T00:00:00"/>
+    <n v="0"/>
+    <n v="24735000"/>
+    <n v="1000000000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1173323"/>
+    <n v="36500000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-01-08T00:00:00"/>
+    <n v="1465697"/>
+    <n v="37900000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-08T00:00:00"/>
+    <d v="2020-02-01T00:00:00"/>
+    <n v="0"/>
+    <n v="11100000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-05-22T00:00:00"/>
+    <n v="4212917"/>
+    <n v="130400000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2019-12-01T00:00:00"/>
+    <n v="2050169"/>
+    <n v="104200000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2019-07-01T00:00:00"/>
+    <n v="391748"/>
+    <n v="14500000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2019-01-09T00:00:00"/>
+    <n v="0"/>
+    <n v="33500000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="1726781"/>
+    <n v="61400000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="1071535"/>
+    <n v="20900000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="4171758"/>
+    <n v="69800000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2019-01-09T00:00:00"/>
+    <n v="0"/>
+    <n v="46841024"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="1414000"/>
+    <n v="46841024"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2019-10-09T00:00:00"/>
+    <n v="1273246"/>
+    <n v="55300000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="1406541"/>
+    <n v="42600000"/>
+    <n v="800000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2019-01-09T00:00:00"/>
+    <n v="0"/>
+    <n v="39200000"/>
+    <n v="1500000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="2093918"/>
+    <n v="98200000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2019-01-09T00:00:00"/>
+    <n v="0"/>
+    <n v="65145000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-02-09T00:00:00"/>
+    <n v="0"/>
+    <n v="36400000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="2408417"/>
+    <n v="43800000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="2187357"/>
+    <n v="64145000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2019-10-01T00:00:00"/>
+    <n v="2933847"/>
+    <n v="229600000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-02-09T00:00:00"/>
+    <n v="1516410"/>
+    <n v="139000000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="3004569"/>
+    <n v="63200000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="1369000"/>
+    <n v="34780000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="1379000"/>
+    <n v="43590000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="1369000"/>
+    <n v="42490000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="1369000"/>
+    <n v="34085000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="1369000"/>
+    <n v="34780000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="1414000"/>
+    <n v="55360200"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2019-01-09T00:00:00"/>
+    <n v="0"/>
+    <n v="96600000"/>
+    <n v="1000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-02-09T00:00:00"/>
+    <n v="0"/>
+    <n v="39400000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="1379000"/>
+    <n v="46490000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="1369000"/>
+    <n v="35590000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="1369000"/>
+    <n v="36490000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2019-03-30T00:00:00"/>
+    <n v="195057"/>
+    <n v="28400000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2019-02-15T00:00:00"/>
+    <n v="236005"/>
+    <n v="111400000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-02-09T00:00:00"/>
+    <n v="0"/>
+    <n v="24100000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="1354076"/>
+    <n v="51000000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="1396592"/>
+    <n v="49800000"/>
+    <n v="1500000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="2785210"/>
+    <n v="56300000"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2019-01-09T00:00:00"/>
+    <n v="0"/>
+    <n v="31400000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2019-01-09T00:00:00"/>
+    <n v="0"/>
+    <n v="31200000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2019-05-05T00:00:00"/>
+    <n v="256979"/>
+    <n v="26000000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-02-09T00:00:00"/>
+    <n v="0"/>
+    <n v="36490000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="1961676"/>
+    <n v="44990000"/>
+    <n v="499950000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2019-01-09T00:00:00"/>
+    <n v="0"/>
+    <n v="63800000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2019-04-26T00:00:00"/>
+    <n v="316368"/>
+    <n v="16400000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="62"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="2208417"/>
+    <n v="51200000"/>
+    <n v="1500000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-02-18T00:00:00"/>
+    <n v="1673923"/>
+    <n v="41000000"/>
+    <n v="1500000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="63"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="2005301"/>
+    <n v="104600000"/>
+    <n v="1500000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="0"/>
+    <n v="51344120"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="1718975"/>
+    <n v="46100000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="0"/>
+    <n v="13500000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-01-09T00:00:00"/>
+    <n v="1369000"/>
+    <n v="51344120"/>
+    <n v="2000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2019-01-09T00:00:00"/>
+    <d v="2020-02-11T00:00:00"/>
+    <n v="962339"/>
+    <n v="13500000"/>
+    <n v="3000000000"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="64"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{71B1A364-7D78-48FD-9710-C6EC53E029D8}" name="TablaDinámica3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A69" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="167" showAll="0" sortType="ascending">
+      <items count="66">
+        <item x="2"/>
+        <item x="44"/>
+        <item x="28"/>
+        <item x="33"/>
+        <item x="60"/>
+        <item x="22"/>
+        <item x="3"/>
+        <item x="52"/>
+        <item x="27"/>
+        <item x="42"/>
+        <item x="34"/>
+        <item x="11"/>
+        <item x="43"/>
+        <item x="62"/>
+        <item x="21"/>
+        <item x="19"/>
+        <item x="61"/>
+        <item x="50"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="54"/>
+        <item x="8"/>
+        <item x="48"/>
+        <item x="30"/>
+        <item x="40"/>
+        <item x="36"/>
+        <item x="25"/>
+        <item x="35"/>
+        <item x="16"/>
+        <item x="1"/>
+        <item x="17"/>
+        <item x="29"/>
+        <item x="53"/>
+        <item x="26"/>
+        <item x="18"/>
+        <item x="59"/>
+        <item x="23"/>
+        <item x="12"/>
+        <item x="58"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="41"/>
+        <item x="24"/>
+        <item x="13"/>
+        <item x="57"/>
+        <item x="51"/>
+        <item x="10"/>
+        <item x="20"/>
+        <item x="0"/>
+        <item x="55"/>
+        <item x="5"/>
+        <item x="64"/>
+        <item x="63"/>
+        <item x="37"/>
+        <item x="56"/>
+        <item x="39"/>
+        <item x="46"/>
+        <item x="6"/>
+        <item x="47"/>
+        <item x="38"/>
+        <item x="49"/>
+        <item x="45"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="66">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -111,7 +4527,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -145,6 +4561,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -179,9 +4596,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -354,70 +4772,408 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F62109-8C6F-42A7-8733-DF87482C4CA6}">
+  <dimension ref="A3:A69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>FECINICIO</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>FECFIN</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>VLRPRISUSCR</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>VLRASEGU</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>VLRASEGURC</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PTD</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PPD</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>PPH</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>RC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K301"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="20.7265625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>43473</v>
       </c>
@@ -448,8 +5204,12 @@
       <c r="J2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="K2" s="3">
+        <f>+B2-A2</f>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>43473</v>
       </c>
@@ -480,8 +5240,12 @@
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K66" si="0">+B3-A3</f>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>43473</v>
       </c>
@@ -512,8 +5276,12 @@
       <c r="J4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="K4" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>43473</v>
       </c>
@@ -544,8 +5312,12 @@
       <c r="J5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="K5" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>43473</v>
       </c>
@@ -576,8 +5348,12 @@
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="K6" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>43473</v>
       </c>
@@ -608,8 +5384,12 @@
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>43473</v>
       </c>
@@ -640,8 +5420,12 @@
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="K8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>43473</v>
       </c>
@@ -672,8 +5456,12 @@
       <c r="J9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="K9" s="3">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>43473</v>
       </c>
@@ -704,8 +5492,12 @@
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="K10" s="3">
+        <f t="shared" si="0"/>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>43473</v>
       </c>
@@ -736,8 +5528,12 @@
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="K11" s="3">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>43473</v>
       </c>
@@ -768,8 +5564,12 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="K12" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>43473</v>
       </c>
@@ -800,8 +5600,12 @@
       <c r="J13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="K13" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>43473</v>
       </c>
@@ -832,8 +5636,12 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="K14" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>43473</v>
       </c>
@@ -864,8 +5672,12 @@
       <c r="J15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="K15" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>43473</v>
       </c>
@@ -896,8 +5708,12 @@
       <c r="J16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="K16" s="3">
+        <f t="shared" si="0"/>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>43473</v>
       </c>
@@ -928,8 +5744,12 @@
       <c r="J17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="K17" s="3">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>43473</v>
       </c>
@@ -960,8 +5780,12 @@
       <c r="J18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="K18" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>43473</v>
       </c>
@@ -992,8 +5816,12 @@
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="K19" s="3">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>43473</v>
       </c>
@@ -1024,8 +5852,12 @@
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="K20" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>43473</v>
       </c>
@@ -1056,8 +5888,12 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="K21" s="3">
+        <f t="shared" si="0"/>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>43473</v>
       </c>
@@ -1088,8 +5924,12 @@
       <c r="J22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="K22" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>43473</v>
       </c>
@@ -1120,8 +5960,12 @@
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24">
+      <c r="K23" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>43473</v>
       </c>
@@ -1152,8 +5996,12 @@
       <c r="J24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="K24" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>43473</v>
       </c>
@@ -1184,8 +6032,12 @@
       <c r="J25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26">
+      <c r="K25" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>43473</v>
       </c>
@@ -1216,8 +6068,12 @@
       <c r="J26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27">
+      <c r="K26" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>43473</v>
       </c>
@@ -1248,8 +6104,12 @@
       <c r="J27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="K27" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>43473</v>
       </c>
@@ -1280,8 +6140,12 @@
       <c r="J28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29">
+      <c r="K28" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>43473</v>
       </c>
@@ -1312,8 +6176,12 @@
       <c r="J29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30">
+      <c r="K29" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>43473</v>
       </c>
@@ -1344,8 +6212,12 @@
       <c r="J30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31">
+      <c r="K30" s="3">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>43473</v>
       </c>
@@ -1376,8 +6248,12 @@
       <c r="J31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32">
+      <c r="K31" s="3">
+        <f t="shared" si="0"/>
+        <v>721</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>43473</v>
       </c>
@@ -1408,8 +6284,12 @@
       <c r="J32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33">
+      <c r="K32" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>43473</v>
       </c>
@@ -1440,8 +6320,12 @@
       <c r="J33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34">
+      <c r="K33" s="3">
+        <f t="shared" si="0"/>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>43473</v>
       </c>
@@ -1472,8 +6356,12 @@
       <c r="J34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35">
+      <c r="K34" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>43473</v>
       </c>
@@ -1504,8 +6392,12 @@
       <c r="J35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36">
+      <c r="K35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>43473</v>
       </c>
@@ -1536,8 +6428,12 @@
       <c r="J36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37">
+      <c r="K36" s="3">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>43473</v>
       </c>
@@ -1568,8 +6464,12 @@
       <c r="J37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38">
+      <c r="K37" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>43473</v>
       </c>
@@ -1600,8 +6500,12 @@
       <c r="J38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39">
+      <c r="K38" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>43473</v>
       </c>
@@ -1632,8 +6536,12 @@
       <c r="J39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40">
+      <c r="K39" s="3">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>43473</v>
       </c>
@@ -1664,8 +6572,12 @@
       <c r="J40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41">
+      <c r="K40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>43473</v>
       </c>
@@ -1696,8 +6608,12 @@
       <c r="J41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42">
+      <c r="K41" s="3">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>43473</v>
       </c>
@@ -1728,8 +6644,12 @@
       <c r="J42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43">
+      <c r="K42" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>43473</v>
       </c>
@@ -1760,8 +6680,12 @@
       <c r="J43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44">
+      <c r="K43" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43473</v>
       </c>
@@ -1792,8 +6716,12 @@
       <c r="J44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45">
+      <c r="K44" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>43473</v>
       </c>
@@ -1824,8 +6752,12 @@
       <c r="J45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46">
+      <c r="K45" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>43473</v>
       </c>
@@ -1856,8 +6788,12 @@
       <c r="J46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47">
+      <c r="K46" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>43473</v>
       </c>
@@ -1888,8 +6824,12 @@
       <c r="J47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48">
+      <c r="K47" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>43473</v>
       </c>
@@ -1920,8 +6860,12 @@
       <c r="J48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49">
+      <c r="K48" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>43473</v>
       </c>
@@ -1952,8 +6896,12 @@
       <c r="J49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50">
+      <c r="K49" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>43473</v>
       </c>
@@ -1984,8 +6932,12 @@
       <c r="J50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51">
+      <c r="K50" s="3">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>43473</v>
       </c>
@@ -2016,8 +6968,12 @@
       <c r="J51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52">
+      <c r="K51" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>43473</v>
       </c>
@@ -2048,8 +7004,12 @@
       <c r="J52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53">
+      <c r="K52" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>43473</v>
       </c>
@@ -2080,8 +7040,12 @@
       <c r="J53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54">
+      <c r="K53" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>43473</v>
       </c>
@@ -2112,8 +7076,12 @@
       <c r="J54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55">
+      <c r="K54" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>43473</v>
       </c>
@@ -2144,8 +7112,12 @@
       <c r="J55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56">
+      <c r="K55" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>43473</v>
       </c>
@@ -2176,8 +7148,12 @@
       <c r="J56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57">
+      <c r="K56" s="3">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>43473</v>
       </c>
@@ -2208,8 +7184,12 @@
       <c r="J57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58">
+      <c r="K57" s="3">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>43473</v>
       </c>
@@ -2240,8 +7220,12 @@
       <c r="J58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59">
+      <c r="K58" s="3">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>43473</v>
       </c>
@@ -2272,8 +7256,12 @@
       <c r="J59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60">
+      <c r="K59" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>43473</v>
       </c>
@@ -2304,8 +7292,12 @@
       <c r="J60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61">
+      <c r="K60" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>43473</v>
       </c>
@@ -2336,8 +7328,12 @@
       <c r="J61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62">
+      <c r="K61" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>43473</v>
       </c>
@@ -2368,8 +7364,12 @@
       <c r="J62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63">
+      <c r="K62" s="3">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>43473</v>
       </c>
@@ -2400,8 +7400,12 @@
       <c r="J63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64">
+      <c r="K63" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>43473</v>
       </c>
@@ -2432,8 +7436,12 @@
       <c r="J64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65">
+      <c r="K64" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>43473</v>
       </c>
@@ -2464,8 +7472,12 @@
       <c r="J65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66">
+      <c r="K65" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>43473</v>
       </c>
@@ -2496,8 +7508,12 @@
       <c r="J66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67">
+      <c r="K66" s="3">
+        <f t="shared" si="0"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>43473</v>
       </c>
@@ -2528,8 +7544,12 @@
       <c r="J67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68">
+      <c r="K67" s="3">
+        <f t="shared" ref="K67:K130" si="1">+B67-A67</f>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>43473</v>
       </c>
@@ -2560,8 +7580,12 @@
       <c r="J68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69">
+      <c r="K68" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>43473</v>
       </c>
@@ -2592,8 +7616,12 @@
       <c r="J69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70">
+      <c r="K69" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>43473</v>
       </c>
@@ -2624,8 +7652,12 @@
       <c r="J70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71">
+      <c r="K70" s="3">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>43473</v>
       </c>
@@ -2656,8 +7688,12 @@
       <c r="J71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72">
+      <c r="K71" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>43473</v>
       </c>
@@ -2688,8 +7724,12 @@
       <c r="J72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73">
+      <c r="K72" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>43473</v>
       </c>
@@ -2720,8 +7760,12 @@
       <c r="J73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74">
+      <c r="K73" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>43473</v>
       </c>
@@ -2752,8 +7796,12 @@
       <c r="J74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75">
+      <c r="K74" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>43473</v>
       </c>
@@ -2784,8 +7832,12 @@
       <c r="J75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76">
+      <c r="K75" s="3">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>43473</v>
       </c>
@@ -2816,8 +7868,12 @@
       <c r="J76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77">
+      <c r="K76" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>43473</v>
       </c>
@@ -2848,8 +7904,12 @@
       <c r="J77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78">
+      <c r="K77" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>43473</v>
       </c>
@@ -2880,8 +7940,12 @@
       <c r="J78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79">
+      <c r="K78" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>43473</v>
       </c>
@@ -2912,8 +7976,12 @@
       <c r="J79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80">
+      <c r="K79" s="3">
+        <f t="shared" si="1"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>43473</v>
       </c>
@@ -2944,8 +8012,12 @@
       <c r="J80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81">
+      <c r="K80" s="3">
+        <f t="shared" si="1"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>43473</v>
       </c>
@@ -2976,8 +8048,12 @@
       <c r="J81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82">
+      <c r="K81" s="3">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>43473</v>
       </c>
@@ -3008,8 +8084,12 @@
       <c r="J82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83">
+      <c r="K82" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>43473</v>
       </c>
@@ -3040,8 +8120,12 @@
       <c r="J83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84">
+      <c r="K83" s="3">
+        <f t="shared" si="1"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>43473</v>
       </c>
@@ -3072,8 +8156,12 @@
       <c r="J84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85">
+      <c r="K84" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>43473</v>
       </c>
@@ -3104,8 +8192,12 @@
       <c r="J85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86">
+      <c r="K85" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>43473</v>
       </c>
@@ -3136,8 +8228,12 @@
       <c r="J86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87">
+      <c r="K86" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>43473</v>
       </c>
@@ -3168,8 +8264,12 @@
       <c r="J87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88">
+      <c r="K87" s="3">
+        <f t="shared" si="1"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>43473</v>
       </c>
@@ -3200,8 +8300,12 @@
       <c r="J88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89">
+      <c r="K88" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>43473</v>
       </c>
@@ -3232,8 +8336,12 @@
       <c r="J89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90">
+      <c r="K89" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>43473</v>
       </c>
@@ -3264,8 +8372,12 @@
       <c r="J90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91">
+      <c r="K90" s="3">
+        <f t="shared" si="1"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>43473</v>
       </c>
@@ -3296,8 +8408,12 @@
       <c r="J91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92">
+      <c r="K91" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>43473</v>
       </c>
@@ -3328,8 +8444,12 @@
       <c r="J92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93">
+      <c r="K92" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>43473</v>
       </c>
@@ -3360,8 +8480,12 @@
       <c r="J93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94">
+      <c r="K93" s="3">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>43473</v>
       </c>
@@ -3392,8 +8516,12 @@
       <c r="J94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95">
+      <c r="K94" s="3">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>43473</v>
       </c>
@@ -3424,8 +8552,12 @@
       <c r="J95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96">
+      <c r="K95" s="3">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>43473</v>
       </c>
@@ -3456,8 +8588,12 @@
       <c r="J96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97">
+      <c r="K96" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>43473</v>
       </c>
@@ -3488,8 +8624,12 @@
       <c r="J97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98">
+      <c r="K97" s="3">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>43473</v>
       </c>
@@ -3520,8 +8660,12 @@
       <c r="J98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99">
+      <c r="K98" s="3">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>43473</v>
       </c>
@@ -3552,8 +8696,12 @@
       <c r="J99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100">
+      <c r="K99" s="3">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>43473</v>
       </c>
@@ -3584,8 +8732,12 @@
       <c r="J100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101">
+      <c r="K100" s="3">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>43473</v>
       </c>
@@ -3616,8 +8768,12 @@
       <c r="J101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102">
+      <c r="K101" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>43473</v>
       </c>
@@ -3648,8 +8804,12 @@
       <c r="J102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103">
+      <c r="K102" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>43473</v>
       </c>
@@ -3680,8 +8840,12 @@
       <c r="J103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104">
+      <c r="K103" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>43473</v>
       </c>
@@ -3712,8 +8876,12 @@
       <c r="J104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105">
+      <c r="K104" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>43473</v>
       </c>
@@ -3744,8 +8912,12 @@
       <c r="J105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106">
+      <c r="K105" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>43473</v>
       </c>
@@ -3776,8 +8948,12 @@
       <c r="J106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107">
+      <c r="K106" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>43473</v>
       </c>
@@ -3808,8 +8984,12 @@
       <c r="J107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108">
+      <c r="K107" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>43473</v>
       </c>
@@ -3840,8 +9020,12 @@
       <c r="J108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109">
+      <c r="K108" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>43473</v>
       </c>
@@ -3872,8 +9056,12 @@
       <c r="J109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110">
+      <c r="K109" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>43473</v>
       </c>
@@ -3904,8 +9092,12 @@
       <c r="J110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111">
+      <c r="K110" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>43473</v>
       </c>
@@ -3936,8 +9128,12 @@
       <c r="J111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112">
+      <c r="K111" s="3">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>43473</v>
       </c>
@@ -3968,8 +9164,12 @@
       <c r="J112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113">
+      <c r="K112" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>43473</v>
       </c>
@@ -4000,8 +9200,12 @@
       <c r="J113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114">
+      <c r="K113" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>43473</v>
       </c>
@@ -4032,8 +9236,12 @@
       <c r="J114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115">
+      <c r="K114" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>43473</v>
       </c>
@@ -4064,8 +9272,12 @@
       <c r="J115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116">
+      <c r="K115" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>43473</v>
       </c>
@@ -4096,8 +9308,12 @@
       <c r="J116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117">
+      <c r="K116" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>43473</v>
       </c>
@@ -4128,8 +9344,12 @@
       <c r="J117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118">
+      <c r="K117" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>43473</v>
       </c>
@@ -4160,8 +9380,12 @@
       <c r="J118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119">
+      <c r="K118" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>43473</v>
       </c>
@@ -4192,8 +9416,12 @@
       <c r="J119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120">
+      <c r="K119" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>43473</v>
       </c>
@@ -4224,8 +9452,12 @@
       <c r="J120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121">
+      <c r="K120" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>43473</v>
       </c>
@@ -4256,8 +9488,12 @@
       <c r="J121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122">
+      <c r="K121" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>43473</v>
       </c>
@@ -4288,8 +9524,12 @@
       <c r="J122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123">
+      <c r="K122" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>43473</v>
       </c>
@@ -4320,8 +9560,12 @@
       <c r="J123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124">
+      <c r="K123" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>43473</v>
       </c>
@@ -4352,8 +9596,12 @@
       <c r="J124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125">
+      <c r="K124" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>43473</v>
       </c>
@@ -4384,8 +9632,12 @@
       <c r="J125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126">
+      <c r="K125" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>43473</v>
       </c>
@@ -4416,8 +9668,12 @@
       <c r="J126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127">
+      <c r="K126" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>43473</v>
       </c>
@@ -4448,8 +9704,12 @@
       <c r="J127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128">
+      <c r="K127" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>43473</v>
       </c>
@@ -4480,8 +9740,12 @@
       <c r="J128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129">
+      <c r="K128" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>43473</v>
       </c>
@@ -4512,8 +9776,12 @@
       <c r="J129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130">
+      <c r="K129" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>43473</v>
       </c>
@@ -4544,8 +9812,12 @@
       <c r="J130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131">
+      <c r="K130" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>43473</v>
       </c>
@@ -4576,8 +9848,12 @@
       <c r="J131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132">
+      <c r="K131" s="3">
+        <f t="shared" ref="K131:K194" si="2">+B131-A131</f>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>43473</v>
       </c>
@@ -4608,8 +9884,12 @@
       <c r="J132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133">
+      <c r="K132" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>43473</v>
       </c>
@@ -4640,8 +9920,12 @@
       <c r="J133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134">
+      <c r="K133" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>43473</v>
       </c>
@@ -4672,8 +9956,12 @@
       <c r="J134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135">
+      <c r="K134" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>43473</v>
       </c>
@@ -4704,8 +9992,12 @@
       <c r="J135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136">
+      <c r="K135" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>43473</v>
       </c>
@@ -4736,8 +10028,12 @@
       <c r="J136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137">
+      <c r="K136" s="3">
+        <f t="shared" si="2"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>43473</v>
       </c>
@@ -4768,8 +10064,12 @@
       <c r="J137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138">
+      <c r="K137" s="3">
+        <f t="shared" si="2"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>43473</v>
       </c>
@@ -4800,8 +10100,12 @@
       <c r="J138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139">
+      <c r="K138" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>43473</v>
       </c>
@@ -4832,8 +10136,12 @@
       <c r="J139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140">
+      <c r="K139" s="3">
+        <f t="shared" si="2"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>43473</v>
       </c>
@@ -4864,8 +10172,12 @@
       <c r="J140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141">
+      <c r="K140" s="3">
+        <f t="shared" si="2"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>43473</v>
       </c>
@@ -4896,8 +10208,12 @@
       <c r="J141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142">
+      <c r="K141" s="3">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>43473</v>
       </c>
@@ -4928,8 +10244,12 @@
       <c r="J142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143">
+      <c r="K142" s="3">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>43473</v>
       </c>
@@ -4960,8 +10280,12 @@
       <c r="J143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144">
+      <c r="K143" s="3">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>43473</v>
       </c>
@@ -4992,8 +10316,12 @@
       <c r="J144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145">
+      <c r="K144" s="3">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>43473</v>
       </c>
@@ -5024,8 +10352,12 @@
       <c r="J145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146">
+      <c r="K145" s="3">
+        <f t="shared" si="2"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>43473</v>
       </c>
@@ -5056,8 +10388,12 @@
       <c r="J146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147">
+      <c r="K146" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>43473</v>
       </c>
@@ -5088,8 +10424,12 @@
       <c r="J147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148">
+      <c r="K147" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>43473</v>
       </c>
@@ -5120,8 +10460,12 @@
       <c r="J148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149">
+      <c r="K148" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>43473</v>
       </c>
@@ -5152,8 +10496,12 @@
       <c r="J149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150">
+      <c r="K149" s="3">
+        <f t="shared" si="2"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>43473</v>
       </c>
@@ -5184,8 +10532,12 @@
       <c r="J150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151">
+      <c r="K150" s="3">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>43473</v>
       </c>
@@ -5216,8 +10568,12 @@
       <c r="J151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152">
+      <c r="K151" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>43473</v>
       </c>
@@ -5248,8 +10604,12 @@
       <c r="J152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153">
+      <c r="K152" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>43473</v>
       </c>
@@ -5280,8 +10640,12 @@
       <c r="J153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154">
+      <c r="K153" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>43473</v>
       </c>
@@ -5312,8 +10676,12 @@
       <c r="J154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155">
+      <c r="K154" s="3">
+        <f t="shared" si="2"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>43473</v>
       </c>
@@ -5344,8 +10712,12 @@
       <c r="J155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156">
+      <c r="K155" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>43473</v>
       </c>
@@ -5376,8 +10748,12 @@
       <c r="J156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157">
+      <c r="K156" s="3">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>43473</v>
       </c>
@@ -5408,8 +10784,12 @@
       <c r="J157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158">
+      <c r="K157" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>43473</v>
       </c>
@@ -5440,8 +10820,12 @@
       <c r="J158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159">
+      <c r="K158" s="3">
+        <f t="shared" si="2"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>43473</v>
       </c>
@@ -5472,8 +10856,12 @@
       <c r="J159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160">
+      <c r="K159" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>43473</v>
       </c>
@@ -5504,8 +10892,12 @@
       <c r="J160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161">
+      <c r="K160" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>43473</v>
       </c>
@@ -5536,8 +10928,12 @@
       <c r="J161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162">
+      <c r="K161" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>43473</v>
       </c>
@@ -5568,8 +10964,12 @@
       <c r="J162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163">
+      <c r="K162" s="3">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>43473</v>
       </c>
@@ -5600,8 +11000,12 @@
       <c r="J163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164">
+      <c r="K163" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>43473</v>
       </c>
@@ -5632,8 +11036,12 @@
       <c r="J164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165">
+      <c r="K164" s="3">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>43473</v>
       </c>
@@ -5664,8 +11072,12 @@
       <c r="J165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166">
+      <c r="K165" s="3">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>43473</v>
       </c>
@@ -5696,8 +11108,12 @@
       <c r="J166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167">
+      <c r="K166" s="3">
+        <f t="shared" si="2"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>43473</v>
       </c>
@@ -5728,8 +11144,12 @@
       <c r="J167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168">
+      <c r="K167" s="3">
+        <f t="shared" si="2"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>43473</v>
       </c>
@@ -5760,8 +11180,12 @@
       <c r="J168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169">
+      <c r="K168" s="3">
+        <f t="shared" si="2"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>43473</v>
       </c>
@@ -5792,8 +11216,12 @@
       <c r="J169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170">
+      <c r="K169" s="3">
+        <f t="shared" si="2"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>43473</v>
       </c>
@@ -5824,8 +11252,12 @@
       <c r="J170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171">
+      <c r="K170" s="3">
+        <f t="shared" si="2"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>43473</v>
       </c>
@@ -5856,8 +11288,12 @@
       <c r="J171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172">
+      <c r="K171" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>43473</v>
       </c>
@@ -5888,8 +11324,12 @@
       <c r="J172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173">
+      <c r="K172" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>43473</v>
       </c>
@@ -5920,8 +11360,12 @@
       <c r="J173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174">
+      <c r="K173" s="3">
+        <f t="shared" si="2"/>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>43473</v>
       </c>
@@ -5952,8 +11396,12 @@
       <c r="J174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175">
+      <c r="K174" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>43473</v>
       </c>
@@ -5984,8 +11432,12 @@
       <c r="J175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176">
+      <c r="K175" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>43473</v>
       </c>
@@ -6016,8 +11468,12 @@
       <c r="J176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177">
+      <c r="K176" s="3">
+        <f t="shared" si="2"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>43473</v>
       </c>
@@ -6048,8 +11504,12 @@
       <c r="J177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178">
+      <c r="K177" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>43473</v>
       </c>
@@ -6080,8 +11540,12 @@
       <c r="J178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179">
+      <c r="K178" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>43473</v>
       </c>
@@ -6112,8 +11576,12 @@
       <c r="J179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180">
+      <c r="K179" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>43473</v>
       </c>
@@ -6144,8 +11612,12 @@
       <c r="J180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181">
+      <c r="K180" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>43473</v>
       </c>
@@ -6176,8 +11648,12 @@
       <c r="J181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182">
+      <c r="K181" s="3">
+        <f t="shared" si="2"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>43473</v>
       </c>
@@ -6208,8 +11684,12 @@
       <c r="J182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183">
+      <c r="K182" s="3">
+        <f t="shared" si="2"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>43473</v>
       </c>
@@ -6240,8 +11720,12 @@
       <c r="J183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184">
+      <c r="K183" s="3">
+        <f t="shared" si="2"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>43473</v>
       </c>
@@ -6272,8 +11756,12 @@
       <c r="J184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185">
+      <c r="K184" s="3">
+        <f t="shared" si="2"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>43473</v>
       </c>
@@ -6304,8 +11792,12 @@
       <c r="J185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186">
+      <c r="K185" s="3">
+        <f t="shared" si="2"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>43473</v>
       </c>
@@ -6336,8 +11828,12 @@
       <c r="J186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187">
+      <c r="K186" s="3">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>43473</v>
       </c>
@@ -6368,8 +11864,12 @@
       <c r="J187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188">
+      <c r="K187" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>43473</v>
       </c>
@@ -6400,8 +11900,12 @@
       <c r="J188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189">
+      <c r="K188" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>43473</v>
       </c>
@@ -6432,8 +11936,12 @@
       <c r="J189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190">
+      <c r="K189" s="3">
+        <f t="shared" si="2"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>43473</v>
       </c>
@@ -6464,8 +11972,12 @@
       <c r="J190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191">
+      <c r="K190" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>43473</v>
       </c>
@@ -6496,8 +12008,12 @@
       <c r="J191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192">
+      <c r="K191" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>43473</v>
       </c>
@@ -6528,8 +12044,12 @@
       <c r="J192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193">
+      <c r="K192" s="3">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>43473</v>
       </c>
@@ -6560,8 +12080,12 @@
       <c r="J193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194">
+      <c r="K193" s="3">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>43473</v>
       </c>
@@ -6592,8 +12116,12 @@
       <c r="J194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195">
+      <c r="K194" s="3">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>43473</v>
       </c>
@@ -6624,8 +12152,12 @@
       <c r="J195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196">
+      <c r="K195" s="3">
+        <f t="shared" ref="K195:K258" si="3">+B195-A195</f>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>43473</v>
       </c>
@@ -6656,8 +12188,12 @@
       <c r="J196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197">
+      <c r="K196" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>43473</v>
       </c>
@@ -6688,8 +12224,12 @@
       <c r="J197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198">
+      <c r="K197" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>43473</v>
       </c>
@@ -6720,8 +12260,12 @@
       <c r="J198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199">
+      <c r="K198" s="3">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>43473</v>
       </c>
@@ -6752,8 +12296,12 @@
       <c r="J199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200">
+      <c r="K199" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>43473</v>
       </c>
@@ -6784,8 +12332,12 @@
       <c r="J200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201">
+      <c r="K200" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>43473</v>
       </c>
@@ -6816,8 +12368,12 @@
       <c r="J201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202">
+      <c r="K201" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>43473</v>
       </c>
@@ -6848,8 +12404,12 @@
       <c r="J202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203">
+      <c r="K202" s="3">
+        <f t="shared" si="3"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>43473</v>
       </c>
@@ -6880,8 +12440,12 @@
       <c r="J203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204">
+      <c r="K203" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>43473</v>
       </c>
@@ -6912,8 +12476,12 @@
       <c r="J204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205">
+      <c r="K204" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>43473</v>
       </c>
@@ -6944,8 +12512,12 @@
       <c r="J205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206">
+      <c r="K205" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>43473</v>
       </c>
@@ -6976,8 +12548,12 @@
       <c r="J206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207">
+      <c r="K206" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>43473</v>
       </c>
@@ -7008,8 +12584,12 @@
       <c r="J207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208">
+      <c r="K207" s="3">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>43473</v>
       </c>
@@ -7040,8 +12620,12 @@
       <c r="J208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209">
+      <c r="K208" s="3">
+        <f t="shared" si="3"/>
+        <v>679</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>43473</v>
       </c>
@@ -7072,8 +12656,12 @@
       <c r="J209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210">
+      <c r="K209" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>43473</v>
       </c>
@@ -7104,8 +12692,12 @@
       <c r="J210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211">
+      <c r="K210" s="3">
+        <f t="shared" si="3"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>43473</v>
       </c>
@@ -7136,8 +12728,12 @@
       <c r="J211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212">
+      <c r="K211" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>43473</v>
       </c>
@@ -7168,8 +12764,12 @@
       <c r="J212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213">
+      <c r="K212" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>43473</v>
       </c>
@@ -7200,8 +12800,12 @@
       <c r="J213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214">
+      <c r="K213" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>43473</v>
       </c>
@@ -7232,8 +12836,12 @@
       <c r="J214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215">
+      <c r="K214" s="3">
+        <f t="shared" si="3"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>43473</v>
       </c>
@@ -7264,8 +12872,12 @@
       <c r="J215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216">
+      <c r="K215" s="3">
+        <f t="shared" si="3"/>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>43473</v>
       </c>
@@ -7296,8 +12908,12 @@
       <c r="J216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217">
+      <c r="K216" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>43473</v>
       </c>
@@ -7328,8 +12944,12 @@
       <c r="J217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218">
+      <c r="K217" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>43473</v>
       </c>
@@ -7360,8 +12980,12 @@
       <c r="J218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219">
+      <c r="K218" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>43473</v>
       </c>
@@ -7392,8 +13016,12 @@
       <c r="J219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220">
+      <c r="K219" s="3">
+        <f t="shared" si="3"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>43473</v>
       </c>
@@ -7424,8 +13052,12 @@
       <c r="J220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221">
+      <c r="K220" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>43473</v>
       </c>
@@ -7456,8 +13088,12 @@
       <c r="J221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222">
+      <c r="K221" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>43473</v>
       </c>
@@ -7488,8 +13124,12 @@
       <c r="J222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223">
+      <c r="K222" s="3">
+        <f t="shared" si="3"/>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>43473</v>
       </c>
@@ -7520,8 +13160,12 @@
       <c r="J223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224">
+      <c r="K223" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>43473</v>
       </c>
@@ -7552,8 +13196,12 @@
       <c r="J224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225">
+      <c r="K224" s="3">
+        <f t="shared" si="3"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>43473</v>
       </c>
@@ -7584,8 +13232,12 @@
       <c r="J225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226">
+      <c r="K225" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>43473</v>
       </c>
@@ -7616,8 +13268,12 @@
       <c r="J226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227">
+      <c r="K226" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>43473</v>
       </c>
@@ -7648,8 +13304,12 @@
       <c r="J227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228">
+      <c r="K227" s="3">
+        <f t="shared" si="3"/>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>43473</v>
       </c>
@@ -7680,8 +13340,12 @@
       <c r="J228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229">
+      <c r="K228" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>43473</v>
       </c>
@@ -7712,8 +13376,12 @@
       <c r="J229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230">
+      <c r="K229" s="3">
+        <f t="shared" si="3"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>43473</v>
       </c>
@@ -7744,8 +13412,12 @@
       <c r="J230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231">
+      <c r="K230" s="3">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>43473</v>
       </c>
@@ -7776,8 +13448,12 @@
       <c r="J231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232">
+      <c r="K231" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>43473</v>
       </c>
@@ -7808,8 +13484,12 @@
       <c r="J232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233">
+      <c r="K232" s="3">
+        <f t="shared" si="3"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>43473</v>
       </c>
@@ -7840,8 +13520,12 @@
       <c r="J233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234">
+      <c r="K233" s="3">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>43473</v>
       </c>
@@ -7872,8 +13556,12 @@
       <c r="J234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235">
+      <c r="K234" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>43473</v>
       </c>
@@ -7904,8 +13592,12 @@
       <c r="J235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236">
+      <c r="K235" s="3">
+        <f t="shared" si="3"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>43473</v>
       </c>
@@ -7936,8 +13628,12 @@
       <c r="J236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237">
+      <c r="K236" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>43473</v>
       </c>
@@ -7968,8 +13664,12 @@
       <c r="J237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238">
+      <c r="K237" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>43473</v>
       </c>
@@ -8000,8 +13700,12 @@
       <c r="J238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239">
+      <c r="K238" s="3">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>43473</v>
       </c>
@@ -8032,8 +13736,12 @@
       <c r="J239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240">
+      <c r="K239" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>43473</v>
       </c>
@@ -8064,8 +13772,12 @@
       <c r="J240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241">
+      <c r="K240" s="3">
+        <f t="shared" si="3"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>43473</v>
       </c>
@@ -8096,8 +13808,12 @@
       <c r="J241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242">
+      <c r="K241" s="3">
+        <f t="shared" si="3"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>43473</v>
       </c>
@@ -8128,8 +13844,12 @@
       <c r="J242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243">
+      <c r="K242" s="3">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>43473</v>
       </c>
@@ -8160,8 +13880,12 @@
       <c r="J243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244">
+      <c r="K243" s="3">
+        <f t="shared" si="3"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>43473</v>
       </c>
@@ -8192,8 +13916,12 @@
       <c r="J244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245">
+      <c r="K244" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>43473</v>
       </c>
@@ -8224,8 +13952,12 @@
       <c r="J245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246">
+      <c r="K245" s="3">
+        <f t="shared" si="3"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>43473</v>
       </c>
@@ -8256,8 +13988,12 @@
       <c r="J246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247">
+      <c r="K246" s="3">
+        <f t="shared" si="3"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>43473</v>
       </c>
@@ -8288,8 +14024,12 @@
       <c r="J247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248">
+      <c r="K247" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>43473</v>
       </c>
@@ -8320,8 +14060,12 @@
       <c r="J248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249">
+      <c r="K248" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>43473</v>
       </c>
@@ -8352,8 +14096,12 @@
       <c r="J249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250">
+      <c r="K249" s="3">
+        <f t="shared" si="3"/>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>43474</v>
       </c>
@@ -8384,8 +14132,12 @@
       <c r="J250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251">
+      <c r="K250" s="3">
+        <f t="shared" si="3"/>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>43474</v>
       </c>
@@ -8416,8 +14168,12 @@
       <c r="J251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252">
+      <c r="K251" s="3">
+        <f t="shared" si="3"/>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>43474</v>
       </c>
@@ -8448,8 +14204,12 @@
       <c r="J252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253">
+      <c r="K252" s="3">
+        <f t="shared" si="3"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>43474</v>
       </c>
@@ -8480,8 +14240,12 @@
       <c r="J253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254">
+      <c r="K253" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>43474</v>
       </c>
@@ -8512,8 +14276,12 @@
       <c r="J254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255">
+      <c r="K254" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>43474</v>
       </c>
@@ -8544,8 +14312,12 @@
       <c r="J255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256">
+      <c r="K255" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>43474</v>
       </c>
@@ -8576,8 +14348,12 @@
       <c r="J256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257">
+      <c r="K256" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>43474</v>
       </c>
@@ -8608,8 +14384,12 @@
       <c r="J257">
         <v>1</v>
       </c>
-    </row>
-    <row r="258">
+      <c r="K257" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>43474</v>
       </c>
@@ -8640,8 +14420,12 @@
       <c r="J258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259">
+      <c r="K258" s="3">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>43474</v>
       </c>
@@ -8672,8 +14456,12 @@
       <c r="J259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260">
+      <c r="K259" s="3">
+        <f t="shared" ref="K259:K301" si="4">+B259-A259</f>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>43474</v>
       </c>
@@ -8704,8 +14492,12 @@
       <c r="J260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261">
+      <c r="K260" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>43474</v>
       </c>
@@ -8736,8 +14528,12 @@
       <c r="J261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262">
+      <c r="K261" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>43474</v>
       </c>
@@ -8768,8 +14564,12 @@
       <c r="J262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263">
+      <c r="K262" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>43474</v>
       </c>
@@ -8800,8 +14600,12 @@
       <c r="J263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264">
+      <c r="K263" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>43474</v>
       </c>
@@ -8832,8 +14636,12 @@
       <c r="J264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265">
+      <c r="K264" s="3">
+        <f t="shared" si="4"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>43474</v>
       </c>
@@ -8864,8 +14672,12 @@
       <c r="J265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266">
+      <c r="K265" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>43474</v>
       </c>
@@ -8896,8 +14708,12 @@
       <c r="J266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267">
+      <c r="K266" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>43474</v>
       </c>
@@ -8928,8 +14744,12 @@
       <c r="J267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268">
+      <c r="K267" s="3">
+        <f t="shared" si="4"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>43474</v>
       </c>
@@ -8960,8 +14780,12 @@
       <c r="J268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269">
+      <c r="K268" s="3">
+        <f t="shared" si="4"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>43474</v>
       </c>
@@ -8992,8 +14816,12 @@
       <c r="J269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270">
+      <c r="K269" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>43474</v>
       </c>
@@ -9024,8 +14852,12 @@
       <c r="J270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271">
+      <c r="K270" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>43474</v>
       </c>
@@ -9056,8 +14888,12 @@
       <c r="J271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272">
+      <c r="K271" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>43474</v>
       </c>
@@ -9088,8 +14924,12 @@
       <c r="J272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273">
+      <c r="K272" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>43474</v>
       </c>
@@ -9120,8 +14960,12 @@
       <c r="J273">
         <v>1</v>
       </c>
-    </row>
-    <row r="274">
+      <c r="K273" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>43474</v>
       </c>
@@ -9152,8 +14996,12 @@
       <c r="J274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275">
+      <c r="K274" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>43474</v>
       </c>
@@ -9184,8 +15032,12 @@
       <c r="J275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276">
+      <c r="K275" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>43474</v>
       </c>
@@ -9216,8 +15068,12 @@
       <c r="J276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277">
+      <c r="K276" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>43474</v>
       </c>
@@ -9248,8 +15104,12 @@
       <c r="J277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278">
+      <c r="K277" s="3">
+        <f t="shared" si="4"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>43474</v>
       </c>
@@ -9280,8 +15140,12 @@
       <c r="J278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279">
+      <c r="K278" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>43474</v>
       </c>
@@ -9312,8 +15176,12 @@
       <c r="J279">
         <v>1</v>
       </c>
-    </row>
-    <row r="280">
+      <c r="K279" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>43474</v>
       </c>
@@ -9344,8 +15212,12 @@
       <c r="J280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281">
+      <c r="K280" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>43474</v>
       </c>
@@ -9376,8 +15248,12 @@
       <c r="J281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282">
+      <c r="K281" s="3">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>43474</v>
       </c>
@@ -9408,8 +15284,12 @@
       <c r="J282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283">
+      <c r="K282" s="3">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>43474</v>
       </c>
@@ -9440,8 +15320,12 @@
       <c r="J283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284">
+      <c r="K283" s="3">
+        <f t="shared" si="4"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>43474</v>
       </c>
@@ -9472,8 +15356,12 @@
       <c r="J284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285">
+      <c r="K284" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>43474</v>
       </c>
@@ -9504,8 +15392,12 @@
       <c r="J285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286">
+      <c r="K285" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>43474</v>
       </c>
@@ -9536,8 +15428,12 @@
       <c r="J286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287">
+      <c r="K286" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>43474</v>
       </c>
@@ -9568,8 +15464,12 @@
       <c r="J287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288">
+      <c r="K287" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
         <v>43474</v>
       </c>
@@ -9600,8 +15500,12 @@
       <c r="J288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289">
+      <c r="K288" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>43474</v>
       </c>
@@ -9632,8 +15536,12 @@
       <c r="J289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290">
+      <c r="K289" s="3">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
         <v>43474</v>
       </c>
@@ -9664,8 +15572,12 @@
       <c r="J290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291">
+      <c r="K290" s="3">
+        <f t="shared" si="4"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
         <v>43474</v>
       </c>
@@ -9696,8 +15608,12 @@
       <c r="J291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292">
+      <c r="K291" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <v>43474</v>
       </c>
@@ -9728,8 +15644,12 @@
       <c r="J292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293">
+      <c r="K292" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>43474</v>
       </c>
@@ -9760,8 +15680,12 @@
       <c r="J293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294">
+      <c r="K293" s="3">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>43474</v>
       </c>
@@ -9792,8 +15716,12 @@
       <c r="J294">
         <v>1</v>
       </c>
-    </row>
-    <row r="295">
+      <c r="K294" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>43474</v>
       </c>
@@ -9824,8 +15752,12 @@
       <c r="J295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296">
+      <c r="K295" s="3">
+        <f t="shared" si="4"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>43474</v>
       </c>
@@ -9856,8 +15788,12 @@
       <c r="J296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297">
+      <c r="K296" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>43474</v>
       </c>
@@ -9888,8 +15824,12 @@
       <c r="J297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298">
+      <c r="K297" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>43474</v>
       </c>
@@ -9920,8 +15860,12 @@
       <c r="J298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299">
+      <c r="K298" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>43474</v>
       </c>
@@ -9952,8 +15896,12 @@
       <c r="J299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300">
+      <c r="K299" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>43474</v>
       </c>
@@ -9984,8 +15932,12 @@
       <c r="J300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301">
+      <c r="K300" s="3">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
         <v>43474</v>
       </c>
@@ -10015,6 +15967,10 @@
       </c>
       <c r="J301">
         <v>1</v>
+      </c>
+      <c r="K301" s="3">
+        <f t="shared" si="4"/>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
